--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/h_fonseca_uniandes_edu_co/Documents/OCTAVO/CodeFest/Reto 2/Mision-2/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E3CF465-4DCA-426F-BEE6-B884786ABDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{5E3CF465-4DCA-426F-BEE6-B884786ABDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F167DCF-7082-4E59-8A72-D08BBF73771E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B9E7377F-4D87-4E92-A7ED-FA8F03A1EFED}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="39">
   <si>
     <t xml:space="preserve">Característica/Parámetro </t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>FM</t>
+  </si>
+  <si>
+    <t>[384,   388,  393,  349,  495, 407,  417 ]</t>
+  </si>
+  <si>
+    <t>[437.46    437.48   437.54 ]</t>
   </si>
 </sst>
 </file>
@@ -345,15 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,6 +366,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,29 +722,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -752,7 +758,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
@@ -766,7 +772,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
@@ -780,7 +786,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
@@ -794,7 +800,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -806,7 +812,7 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -818,7 +824,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -832,7 +838,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
@@ -842,7 +848,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -856,7 +862,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -868,7 +874,7 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -882,7 +888,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
@@ -896,7 +902,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
@@ -908,7 +914,7 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
@@ -922,7 +928,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -934,7 +940,7 @@
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
@@ -946,7 +952,7 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
@@ -958,7 +964,7 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -970,7 +976,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -979,7 +985,7 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -996,7 +1002,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1006,29 +1012,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -1042,61 +1048,61 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>128873.23940000001</v>
+        <v>42957</v>
       </c>
       <c r="C4" s="1">
-        <v>128873.23940000001</v>
+        <v>42957.56</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.6190000000000001E-2</v>
       </c>
       <c r="C5" s="1">
-        <v>2.8000000000000001E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.59</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>0.59</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C7" s="1">
-        <v>6.4000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1108,7 +1114,7 @@
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1122,7 +1128,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
@@ -1132,7 +1138,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="1">
@@ -1146,59 +1152,59 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>0.60899999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="C14" s="1">
-        <v>0.60899999999999999</v>
+        <v>0.376</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>12.52</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>12.52</v>
+        <v>16.350000000000001</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
@@ -1212,19 +1218,19 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
@@ -1236,21 +1242,19 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="1">
-        <f>3*3</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <f>3*3</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1262,7 +1266,7 @@
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -1271,7 +1275,7 @@
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
